--- a/Consumer/Universal Music Group.xlsx
+++ b/Consumer/Universal Music Group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D4F050-68CE-3D4A-A25F-B53AA63BF9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180AE38-8D2C-FC4B-8D59-CA09005FDFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2236,9 +2236,9 @@
     <v>Powered by Refinitiv</v>
     <v>24.13</v>
     <v>16.649999999999999</v>
-    <v>0.94099999999999995</v>
-    <v>0.08</v>
-    <v>4.2770000000000004E-3</v>
+    <v>0.94399999999999995</v>
+    <v>-6.5000000000000002E-2</v>
+    <v>-3.3589999999999996E-3</v>
     <v>EUR</v>
     <v>Universal Music Group NV is a company based in the Netherlands which is mainly engaged in music entertainment. The Company is focused on the discovery and development of artists and songwriters and the marketing, promotion, distribution, sales and licensing of audio and audio-visual content. Universal Music Group N.V. includes music publishing companies Universal Music Publishing Group. Its recorded music catalog consists more than three million recordings includes a wide array of performers such as ABBA, Louis Armstrong, The Beatles, The Beach Boys, The Bee Gees, Ariana Grande, Imagine Dragons, Lady Gaga, James Brown, Bon Jovi, Neil Diamond, Marvin Gaye, Drake, Billie Eilish, Eminem, Selena Gomez Guns N’ Roses, Elton John, Bob Marley, Paul McCartney, Nirvana, Luciano Pavarotti, Queen, The Rolling Stones, Frank Sinatra, U2, Amy Winehouse and Stevie Wonde,r among others.</v>
     <v>9500</v>
@@ -2246,24 +2246,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>S-Gravelandseweg 80, HILVERSUM, NOORD-HOLLAND, 1217 EW NL</v>
-    <v>18.934999999999999</v>
+    <v>19.524999999999999</v>
     <v>Media &amp; Publishing</v>
     <v>Stock</v>
-    <v>45057.666666666664</v>
+    <v>45100.666666666664</v>
     <v>0</v>
-    <v>18.715</v>
-    <v>34056670000</v>
+    <v>19.190000000000001</v>
+    <v>35231280000</v>
     <v>Universal Music Group NV</v>
     <v>Universal Music Group NV</v>
-    <v>18.715</v>
-    <v>43.5443</v>
-    <v>18.704999999999998</v>
-    <v>18.785</v>
-    <v>1820726000</v>
+    <v>19.344999999999999</v>
+    <v>44.853999999999999</v>
+    <v>19.350000000000001</v>
+    <v>19.285</v>
+    <v>1820738000</v>
     <v>UMG</v>
     <v>Universal Music Group NV (XAMS:UMG)</v>
-    <v>1685824</v>
-    <v>2376750</v>
+    <v>1114016</v>
+    <v>1629000</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2834,7 +2834,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3428,15 +3428,15 @@
       </c>
       <c r="N16" s="31">
         <f>O101/G3</f>
-        <v>3.2936818181818182</v>
+        <v>3.4072804642166346</v>
       </c>
       <c r="O16" s="31">
         <f>O101/G28</f>
-        <v>43.550728900255756</v>
+        <v>45.052787723785165</v>
       </c>
       <c r="P16" s="32">
         <f>O101/G106</f>
-        <v>20.778932275777912</v>
+        <v>21.495594874923732</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O95" s="39" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>0.94099999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="O97" s="37">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.1460050000000006E-2</v>
+        <v>8.1589200000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="O100" s="35">
         <f>O99/O103</f>
-        <v>7.2774952783403721E-2</v>
+        <v>7.0519740778613921E-2</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="O101" s="40" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>34056670000</v>
+        <v>35231280000</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="O102" s="35">
         <f>O101/O103</f>
-        <v>0.92722504721659627</v>
+        <v>0.92948025922138611</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="O103" s="41">
         <f>O99+O101</f>
-        <v>36729670000</v>
+        <v>37904280000</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>7.7146599796421009E-2</v>
+        <v>7.7400311027860477E-2</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5734,7 +5734,7 @@
       <c r="K107" s="43"/>
       <c r="L107" s="46">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>46098444724.619431</v>
+        <v>45875245797.950676</v>
       </c>
       <c r="M107" s="47" t="s">
         <v>148</v>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="L108" s="46">
         <f>L107+L106</f>
-        <v>48443690722.953247</v>
+        <v>48220491796.284492</v>
       </c>
       <c r="M108" s="47" t="s">
         <v>144</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O108" s="51">
         <f>O105</f>
-        <v>7.7146599796421009E-2</v>
+        <v>7.7400311027860477E-2</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="I110" s="40">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>39921636864.787231</v>
+        <v>39724743804.467087</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20" x14ac:dyDescent="0.25">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="I113" s="40">
         <f>I110+I111-I112</f>
-        <v>37314636864.787231</v>
+        <v>37117743804.467087</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="I115" s="55">
         <f>I113/I114</f>
-        <v>20.491216389464856</v>
+        <v>20.383093179818633</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="I116" s="56" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>18.785</v>
+        <v>19.285</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="I117" s="58">
         <f>I115/I116-1</f>
-        <v>9.0828660604996392E-2</v>
+        <v>5.6940273778513628E-2</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
